--- a/340 py_noex2.xlsx
+++ b/340 py_noex2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PC stuff\Programs\Python\QT Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A820B2-3E9C-4C73-9B62-F5C29B999D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B8EB67-8681-453F-8A86-29C6934132E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="720" activeTab="6" xr2:uid="{149530E0-52EE-45AC-BBFE-894058325DCC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="720" activeTab="12" xr2:uid="{149530E0-52EE-45AC-BBFE-894058325DCC}"/>
   </bookViews>
   <sheets>
     <sheet name="water_t" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="45">
   <si>
     <t>T</t>
   </si>
@@ -76,9 +76,6 @@
     <t>kJ/kg·K</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
     <t>°C</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>m3/kg</t>
-  </si>
-  <si>
-    <t>Psat</t>
   </si>
   <si>
     <t>kPa</t>
@@ -639,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241A24C3-A193-4F5F-9DD5-794AD71D54EA}">
   <dimension ref="A1:AG77"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="AA78" sqref="AA78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,54 +644,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>3</v>
@@ -3841,7 +3835,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3849,13 +3843,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6068,7 +6062,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6076,13 +6070,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8295,7 +8289,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8303,13 +8297,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10505,8 +10499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDB892D-1663-4A9E-907E-AB7892FFE97F}">
   <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10522,7 +10516,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10530,13 +10524,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12749,7 +12743,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -12757,13 +12751,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13916,7 +13910,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -13924,13 +13918,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -16143,7 +16137,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -16151,13 +16145,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -16690,7 +16684,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -16698,13 +16692,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -17220,65 +17214,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376823F7-5D76-4D88-A4F7-9DC775B7AD7A}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AD38" sqref="AD38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>3</v>
@@ -20318,13 +20310,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -20333,18 +20325,18 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -31273,13 +31265,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
@@ -31288,18 +31280,18 @@
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>3</v>
@@ -33541,7 +33533,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:AN58"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33551,54 +33543,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>3</v>
@@ -35931,11 +35923,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B834564-B6C7-4620-AA87-51C198E51DA8}">
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:AW39"/>
-    </sheetView>
+    <sheetView showFormulas="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -35949,57 +35939,57 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>3</v>
@@ -37434,9 +37424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1759759-343E-49E3-9D79-7A060200F338}">
   <dimension ref="A1:F264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="L275" sqref="L275"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -37447,13 +37435,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
@@ -37462,18 +37450,18 @@
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>3</v>
@@ -42752,54 +42740,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
-      </c>
-      <c r="G1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -43929,7 +43917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18C3363-1E9B-4C7C-BC67-A7E52DB79093}">
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -43952,7 +43940,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -43960,19 +43948,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -46527,18 +46515,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46560,6 +46548,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BFBC4A-F8AC-44F4-93B5-8FD927C5A8AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D72CE86-F6EB-4551-A4BF-725F2C5BE827}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -46573,12 +46569,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BFBC4A-F8AC-44F4-93B5-8FD927C5A8AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/340 py_noex2.xlsx
+++ b/340 py_noex2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PC stuff\Programs\Python\QT Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B8EB67-8681-453F-8A86-29C6934132E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A9748F-B8C4-4569-AC55-0F227DB6BFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="720" activeTab="12" xr2:uid="{149530E0-52EE-45AC-BBFE-894058325DCC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="720" activeTab="6" xr2:uid="{149530E0-52EE-45AC-BBFE-894058325DCC}"/>
   </bookViews>
   <sheets>
     <sheet name="water_t" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="44">
   <si>
     <t>T</t>
   </si>
@@ -157,12 +157,6 @@
     <t>Mach</t>
   </si>
   <si>
-    <t>Mpa</t>
-  </si>
-  <si>
-    <t>MPA</t>
-  </si>
-  <si>
     <t>Temperature</t>
   </si>
   <si>
@@ -185,6 +179,9 @@
   </si>
   <si>
     <t>m3/m3</t>
+  </si>
+  <si>
+    <t>Kpa</t>
   </si>
 </sst>
 </file>
@@ -10499,7 +10496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDB892D-1663-4A9E-907E-AB7892FFE97F}">
   <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
@@ -20303,7 +20300,7 @@
   <dimension ref="A1:F547"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20330,7 +20327,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -20350,7 +20347,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>45.81</v>
@@ -20370,7 +20367,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -20390,7 +20387,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -20410,7 +20407,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>150</v>
@@ -20430,7 +20427,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -20450,7 +20447,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>250</v>
@@ -20470,7 +20467,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>300</v>
@@ -20490,7 +20487,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>400</v>
@@ -20510,7 +20507,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>500</v>
@@ -20530,7 +20527,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>600</v>
@@ -20550,7 +20547,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>700</v>
@@ -20570,7 +20567,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>800</v>
@@ -20590,7 +20587,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>900</v>
@@ -20610,7 +20607,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>1000</v>
@@ -20630,7 +20627,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>1100</v>
@@ -20650,7 +20647,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>1200</v>
@@ -20670,7 +20667,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>1300</v>
@@ -20690,7 +20687,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>81.319999999999993</v>
@@ -20710,7 +20707,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>100</v>
@@ -20730,7 +20727,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>150</v>
@@ -20750,7 +20747,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -20770,7 +20767,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>250</v>
@@ -20790,7 +20787,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -20810,7 +20807,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>400</v>
@@ -20830,7 +20827,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>500</v>
@@ -20850,7 +20847,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>600</v>
@@ -20870,7 +20867,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>700</v>
@@ -20890,7 +20887,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>800</v>
@@ -20910,7 +20907,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <v>900</v>
@@ -20930,7 +20927,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>1000</v>
@@ -20950,7 +20947,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B33">
         <v>1100</v>
@@ -20970,7 +20967,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>1200</v>
@@ -20990,7 +20987,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B35">
         <v>1300</v>
@@ -21010,7 +21007,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B36">
         <v>99.61</v>
@@ -21030,7 +21027,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B37">
         <v>100</v>
@@ -21050,7 +21047,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B38">
         <v>150</v>
@@ -21070,7 +21067,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B39">
         <v>200</v>
@@ -21090,7 +21087,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B40">
         <v>250</v>
@@ -21110,7 +21107,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B41">
         <v>300</v>
@@ -21130,7 +21127,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B42">
         <v>400</v>
@@ -21150,7 +21147,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B43">
         <v>500</v>
@@ -21170,7 +21167,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B44">
         <v>600</v>
@@ -21190,7 +21187,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>700</v>
@@ -21210,7 +21207,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B46">
         <v>800</v>
@@ -21230,7 +21227,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B47">
         <v>900</v>
@@ -21250,7 +21247,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B48">
         <v>1000</v>
@@ -21270,7 +21267,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B49">
         <v>1100</v>
@@ -21290,7 +21287,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B50">
         <v>1200</v>
@@ -21310,7 +21307,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B51">
         <v>1300</v>
@@ -21330,7 +21327,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B52">
         <v>120.21</v>
@@ -21350,7 +21347,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B53">
         <v>150</v>
@@ -21370,7 +21367,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B54">
         <v>200</v>
@@ -21390,7 +21387,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B55">
         <v>250</v>
@@ -21410,7 +21407,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B56">
         <v>300</v>
@@ -21430,7 +21427,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B57">
         <v>400</v>
@@ -21450,7 +21447,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B58">
         <v>500</v>
@@ -21470,7 +21467,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B59">
         <v>600</v>
@@ -21490,7 +21487,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B60">
         <v>700</v>
@@ -21510,7 +21507,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B61">
         <v>800</v>
@@ -21530,7 +21527,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B62">
         <v>900</v>
@@ -21550,7 +21547,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B63">
         <v>1000</v>
@@ -21570,7 +21567,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B64">
         <v>1100</v>
@@ -21590,7 +21587,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B65">
         <v>1200</v>
@@ -21610,7 +21607,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B66">
         <v>1300</v>
@@ -21630,7 +21627,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B67">
         <v>133.52000000000001</v>
@@ -21650,7 +21647,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B68">
         <v>150</v>
@@ -21670,7 +21667,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B69">
         <v>200</v>
@@ -21690,7 +21687,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B70">
         <v>250</v>
@@ -21710,7 +21707,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B71">
         <v>300</v>
@@ -21730,7 +21727,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B72">
         <v>400</v>
@@ -21750,7 +21747,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B73">
         <v>500</v>
@@ -21770,7 +21767,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B74">
         <v>600</v>
@@ -21790,7 +21787,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B75">
         <v>700</v>
@@ -21810,7 +21807,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B76">
         <v>800</v>
@@ -21830,7 +21827,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B77">
         <v>900</v>
@@ -21850,7 +21847,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B78">
         <v>1000</v>
@@ -21870,7 +21867,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B79">
         <v>1100</v>
@@ -21890,7 +21887,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B80">
         <v>1200</v>
@@ -21910,7 +21907,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B81">
         <v>1300</v>
@@ -21930,7 +21927,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B82">
         <v>143.61000000000001</v>
@@ -21950,7 +21947,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B83">
         <v>150</v>
@@ -21970,7 +21967,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B84">
         <v>200</v>
@@ -21990,7 +21987,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B85">
         <v>250</v>
@@ -22010,7 +22007,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B86">
         <v>300</v>
@@ -22030,7 +22027,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B87">
         <v>400</v>
@@ -22050,7 +22047,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B88">
         <v>500</v>
@@ -22070,7 +22067,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B89">
         <v>600</v>
@@ -22090,7 +22087,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B90">
         <v>700</v>
@@ -22110,7 +22107,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B91">
         <v>800</v>
@@ -22130,7 +22127,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B92">
         <v>900</v>
@@ -22150,7 +22147,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B93">
         <v>1000</v>
@@ -22170,7 +22167,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B94">
         <v>1100</v>
@@ -22190,7 +22187,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B95">
         <v>1200</v>
@@ -22210,7 +22207,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B96">
         <v>1300</v>
@@ -22230,7 +22227,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B97">
         <v>151.83000000000001</v>
@@ -22250,7 +22247,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B98">
         <v>200</v>
@@ -22270,7 +22267,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B99">
         <v>250</v>
@@ -22290,7 +22287,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B100">
         <v>300</v>
@@ -22310,7 +22307,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B101">
         <v>350</v>
@@ -22330,7 +22327,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B102">
         <v>400</v>
@@ -22350,7 +22347,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B103">
         <v>500</v>
@@ -22370,7 +22367,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B104">
         <v>600</v>
@@ -22390,7 +22387,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B105">
         <v>700</v>
@@ -22410,7 +22407,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B106">
         <v>800</v>
@@ -22430,7 +22427,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B107">
         <v>900</v>
@@ -22450,7 +22447,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B108">
         <v>1000</v>
@@ -22470,7 +22467,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B109">
         <v>1100</v>
@@ -22490,7 +22487,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B110">
         <v>1200</v>
@@ -22510,7 +22507,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B111">
         <v>1300</v>
@@ -22530,7 +22527,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B112">
         <v>158.83000000000001</v>
@@ -22550,7 +22547,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B113">
         <v>200</v>
@@ -22570,7 +22567,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B114">
         <v>250</v>
@@ -22590,7 +22587,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B115">
         <v>300</v>
@@ -22610,7 +22607,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B116">
         <v>350</v>
@@ -22630,7 +22627,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B117">
         <v>400</v>
@@ -22650,7 +22647,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B118">
         <v>500</v>
@@ -22670,7 +22667,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B119">
         <v>600</v>
@@ -22690,7 +22687,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B120">
         <v>700</v>
@@ -22710,7 +22707,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B121">
         <v>800</v>
@@ -22730,7 +22727,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B122">
         <v>900</v>
@@ -22750,7 +22747,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B123">
         <v>1000</v>
@@ -22770,7 +22767,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B124">
         <v>1100</v>
@@ -22790,7 +22787,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B125">
         <v>1200</v>
@@ -22810,7 +22807,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B126">
         <v>1300</v>
@@ -22830,7 +22827,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B127">
         <v>170.41</v>
@@ -22850,7 +22847,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B128">
         <v>200</v>
@@ -22870,7 +22867,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B129">
         <v>250</v>
@@ -22890,7 +22887,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B130">
         <v>300</v>
@@ -22910,7 +22907,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B131">
         <v>350</v>
@@ -22930,7 +22927,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B132">
         <v>400</v>
@@ -22950,7 +22947,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B133">
         <v>500</v>
@@ -22970,7 +22967,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B134">
         <v>600</v>
@@ -22990,7 +22987,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B135">
         <v>700</v>
@@ -23010,7 +23007,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B136">
         <v>800</v>
@@ -23030,7 +23027,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B137">
         <v>900</v>
@@ -23050,7 +23047,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B138">
         <v>1000</v>
@@ -23070,7 +23067,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B139">
         <v>1100</v>
@@ -23090,7 +23087,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B140">
         <v>1200</v>
@@ -23110,7 +23107,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B141">
         <v>1300</v>
@@ -23130,7 +23127,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B142">
         <v>179.88</v>
@@ -23150,7 +23147,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B143">
         <v>200</v>
@@ -23170,7 +23167,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B144">
         <v>250</v>
@@ -23190,7 +23187,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B145">
         <v>300</v>
@@ -23210,7 +23207,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B146">
         <v>350</v>
@@ -23230,7 +23227,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B147">
         <v>400</v>
@@ -23250,7 +23247,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B148">
         <v>500</v>
@@ -23270,7 +23267,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B149">
         <v>600</v>
@@ -23290,7 +23287,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B150">
         <v>700</v>
@@ -23310,7 +23307,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B151">
         <v>800</v>
@@ -23330,7 +23327,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B152">
         <v>900</v>
@@ -23350,7 +23347,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B153">
         <v>1000</v>
@@ -23370,7 +23367,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B154">
         <v>1100</v>
@@ -23390,7 +23387,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B155">
         <v>1200</v>
@@ -23410,7 +23407,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B156">
         <v>1300</v>
@@ -23430,7 +23427,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B157">
         <v>187.96</v>
@@ -23450,7 +23447,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B158">
         <v>200</v>
@@ -23470,7 +23467,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B159">
         <v>250</v>
@@ -23490,7 +23487,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B160">
         <v>300</v>
@@ -23510,7 +23507,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B161">
         <v>350</v>
@@ -23530,7 +23527,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B162">
         <v>400</v>
@@ -23550,7 +23547,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B163">
         <v>500</v>
@@ -23570,7 +23567,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B164">
         <v>600</v>
@@ -23590,7 +23587,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B165">
         <v>700</v>
@@ -23610,7 +23607,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B166">
         <v>800</v>
@@ -23630,7 +23627,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B167">
         <v>900</v>
@@ -23650,7 +23647,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B168">
         <v>1000</v>
@@ -23670,7 +23667,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B169">
         <v>1100</v>
@@ -23690,7 +23687,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B170">
         <v>1200</v>
@@ -23710,7 +23707,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B171">
         <v>1300</v>
@@ -23730,7 +23727,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B172">
         <v>195.04</v>
@@ -23750,7 +23747,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B173">
         <v>200</v>
@@ -23770,7 +23767,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B174">
         <v>250</v>
@@ -23790,7 +23787,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B175">
         <v>300</v>
@@ -23810,7 +23807,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B176">
         <v>350</v>
@@ -23830,7 +23827,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B177">
         <v>400</v>
@@ -23850,7 +23847,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B178">
         <v>500</v>
@@ -23870,7 +23867,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B179">
         <v>600</v>
@@ -23890,7 +23887,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B180">
         <v>700</v>
@@ -23910,7 +23907,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B181">
         <v>800</v>
@@ -23930,7 +23927,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B182">
         <v>900</v>
@@ -23950,7 +23947,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B183">
         <v>1000</v>
@@ -23970,7 +23967,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B184">
         <v>1100</v>
@@ -23990,7 +23987,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B185">
         <v>1200</v>
@@ -24010,7 +24007,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B186">
         <v>1300</v>
@@ -24030,7 +24027,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B187">
         <v>201.37</v>
@@ -24050,7 +24047,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B188">
         <v>225</v>
@@ -24070,7 +24067,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B189">
         <v>250</v>
@@ -24090,7 +24087,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B190">
         <v>300</v>
@@ -24110,7 +24107,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B191">
         <v>350</v>
@@ -24130,7 +24127,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B192">
         <v>400</v>
@@ -24150,7 +24147,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B193">
         <v>500</v>
@@ -24170,7 +24167,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B194">
         <v>600</v>
@@ -24190,7 +24187,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B195">
         <v>700</v>
@@ -24210,7 +24207,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B196">
         <v>800</v>
@@ -24230,7 +24227,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B197">
         <v>900</v>
@@ -24250,7 +24247,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B198">
         <v>1000</v>
@@ -24270,7 +24267,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B199">
         <v>1100</v>
@@ -24290,7 +24287,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B200">
         <v>1200</v>
@@ -24310,7 +24307,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B201">
         <v>1300</v>
@@ -24330,7 +24327,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="B202">
         <v>207.11</v>
@@ -24350,7 +24347,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="B203">
         <v>225</v>
@@ -24370,7 +24367,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="B204">
         <v>250</v>
@@ -24390,7 +24387,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="B205">
         <v>300</v>
@@ -24410,7 +24407,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="B206">
         <v>350</v>
@@ -24430,7 +24427,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="B207">
         <v>400</v>
@@ -24450,7 +24447,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="B208">
         <v>500</v>
@@ -24470,7 +24467,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="B209">
         <v>600</v>
@@ -24490,7 +24487,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="B210">
         <v>700</v>
@@ -24510,7 +24507,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="B211">
         <v>800</v>
@@ -24530,7 +24527,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="B212">
         <v>900</v>
@@ -24550,7 +24547,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="B213">
         <v>1000</v>
@@ -24570,7 +24567,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="B214">
         <v>1100</v>
@@ -24590,7 +24587,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="B215">
         <v>1200</v>
@@ -24610,7 +24607,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="B216">
         <v>1300</v>
@@ -24630,7 +24627,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="B217">
         <v>212.38</v>
@@ -24650,7 +24647,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="B218">
         <v>225</v>
@@ -24670,7 +24667,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="B219">
         <v>250</v>
@@ -24690,7 +24687,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="B220">
         <v>300</v>
@@ -24710,7 +24707,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="B221">
         <v>350</v>
@@ -24730,7 +24727,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="B222">
         <v>400</v>
@@ -24750,7 +24747,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="B223">
         <v>500</v>
@@ -24770,7 +24767,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="B224">
         <v>600</v>
@@ -24790,7 +24787,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="B225">
         <v>700</v>
@@ -24810,7 +24807,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="B226">
         <v>800</v>
@@ -24830,7 +24827,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="B227">
         <v>900</v>
@@ -24850,7 +24847,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="B228">
         <v>1000</v>
@@ -24870,7 +24867,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="B229">
         <v>1100</v>
@@ -24890,7 +24887,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="B230">
         <v>1200</v>
@@ -24910,7 +24907,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="B231">
         <v>1300</v>
@@ -24930,7 +24927,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="B232">
         <v>223.95</v>
@@ -24950,7 +24947,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="B233">
         <v>225</v>
@@ -24970,7 +24967,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="B234">
         <v>250</v>
@@ -24990,7 +24987,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="B235">
         <v>300</v>
@@ -25010,7 +25007,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="B236">
         <v>350</v>
@@ -25030,7 +25027,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="B237">
         <v>400</v>
@@ -25050,7 +25047,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="B238">
         <v>450</v>
@@ -25070,7 +25067,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="B239">
         <v>500</v>
@@ -25090,7 +25087,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="B240">
         <v>600</v>
@@ -25110,7 +25107,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="B241">
         <v>700</v>
@@ -25130,7 +25127,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="B242">
         <v>800</v>
@@ -25150,7 +25147,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="B243">
         <v>900</v>
@@ -25170,7 +25167,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="B244">
         <v>1000</v>
@@ -25190,7 +25187,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="B245">
         <v>1100</v>
@@ -25210,7 +25207,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="B246">
         <v>1200</v>
@@ -25230,7 +25227,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="B247">
         <v>1300</v>
@@ -25250,7 +25247,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B248">
         <v>233.85</v>
@@ -25270,7 +25267,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B249">
         <v>250</v>
@@ -25290,7 +25287,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B250">
         <v>300</v>
@@ -25310,7 +25307,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B251">
         <v>350</v>
@@ -25330,7 +25327,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B252">
         <v>400</v>
@@ -25350,7 +25347,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B253">
         <v>450</v>
@@ -25370,7 +25367,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B254">
         <v>500</v>
@@ -25390,7 +25387,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B255">
         <v>600</v>
@@ -25410,7 +25407,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B256">
         <v>700</v>
@@ -25430,7 +25427,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B257">
         <v>800</v>
@@ -25450,7 +25447,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B258">
         <v>900</v>
@@ -25470,7 +25467,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B259">
         <v>1000</v>
@@ -25490,7 +25487,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B260">
         <v>1100</v>
@@ -25510,7 +25507,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B261">
         <v>1200</v>
@@ -25530,7 +25527,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B262">
         <v>1300</v>
@@ -25550,7 +25547,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="B263">
         <v>242.56</v>
@@ -25570,7 +25567,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="B264">
         <v>250</v>
@@ -25590,7 +25587,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="B265">
         <v>300</v>
@@ -25610,7 +25607,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="B266">
         <v>350</v>
@@ -25630,7 +25627,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="B267">
         <v>400</v>
@@ -25650,7 +25647,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="B268">
         <v>450</v>
@@ -25670,7 +25667,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="B269">
         <v>500</v>
@@ -25690,7 +25687,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="B270">
         <v>600</v>
@@ -25710,7 +25707,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="B271">
         <v>700</v>
@@ -25730,7 +25727,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="B272">
         <v>800</v>
@@ -25750,7 +25747,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="B273">
         <v>900</v>
@@ -25770,7 +25767,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="B274">
         <v>1000</v>
@@ -25790,7 +25787,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="B275">
         <v>1100</v>
@@ -25810,7 +25807,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="B276">
         <v>1200</v>
@@ -25830,7 +25827,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="B277">
         <v>1300</v>
@@ -25850,7 +25847,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="B278">
         <v>250.35</v>
@@ -25870,7 +25867,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="B279">
         <v>275</v>
@@ -25890,7 +25887,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="B280">
         <v>300</v>
@@ -25910,7 +25907,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="B281">
         <v>350</v>
@@ -25930,7 +25927,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="B282">
         <v>400</v>
@@ -25950,7 +25947,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="B283">
         <v>450</v>
@@ -25970,7 +25967,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="B284">
         <v>500</v>
@@ -25990,7 +25987,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="B285">
         <v>600</v>
@@ -26010,7 +26007,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="B286">
         <v>700</v>
@@ -26030,7 +26027,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="B287">
         <v>800</v>
@@ -26050,7 +26047,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="B288">
         <v>900</v>
@@ -26070,7 +26067,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="B289">
         <v>1000</v>
@@ -26090,7 +26087,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="B290">
         <v>1100</v>
@@ -26110,7 +26107,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="B291">
         <v>1200</v>
@@ -26130,7 +26127,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="B292">
         <v>1300</v>
@@ -26150,7 +26147,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="B293">
         <v>257.44</v>
@@ -26170,7 +26167,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="B294">
         <v>275</v>
@@ -26190,7 +26187,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="B295">
         <v>300</v>
@@ -26210,7 +26207,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="B296">
         <v>350</v>
@@ -26230,7 +26227,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="B297">
         <v>400</v>
@@ -26250,7 +26247,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="B298">
         <v>450</v>
@@ -26270,7 +26267,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="B299">
         <v>500</v>
@@ -26290,7 +26287,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="B300">
         <v>600</v>
@@ -26310,7 +26307,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="B301">
         <v>700</v>
@@ -26330,7 +26327,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="B302">
         <v>800</v>
@@ -26350,7 +26347,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="B303">
         <v>900</v>
@@ -26370,7 +26367,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="B304">
         <v>1000</v>
@@ -26390,7 +26387,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="B305">
         <v>1100</v>
@@ -26410,7 +26407,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="B306">
         <v>1200</v>
@@ -26430,7 +26427,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="B307">
         <v>1300</v>
@@ -26450,7 +26447,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B308">
         <v>263.94</v>
@@ -26470,7 +26467,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B309">
         <v>275</v>
@@ -26490,7 +26487,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B310">
         <v>300</v>
@@ -26510,7 +26507,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B311">
         <v>350</v>
@@ -26530,7 +26527,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B312">
         <v>400</v>
@@ -26550,7 +26547,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B313">
         <v>450</v>
@@ -26570,7 +26567,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B314">
         <v>500</v>
@@ -26590,7 +26587,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B315">
         <v>600</v>
@@ -26610,7 +26607,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B316">
         <v>700</v>
@@ -26630,7 +26627,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B317">
         <v>800</v>
@@ -26650,7 +26647,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B318">
         <v>900</v>
@@ -26670,7 +26667,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B319">
         <v>1000</v>
@@ -26690,7 +26687,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B320">
         <v>1100</v>
@@ -26710,7 +26707,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B321">
         <v>1200</v>
@@ -26730,7 +26727,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B322">
         <v>1300</v>
@@ -26750,7 +26747,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="B323">
         <v>275.58999999999997</v>
@@ -26770,7 +26767,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="B324">
         <v>300</v>
@@ -26790,7 +26787,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="B325">
         <v>350</v>
@@ -26810,7 +26807,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="B326">
         <v>400</v>
@@ -26830,7 +26827,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="B327">
         <v>450</v>
@@ -26850,7 +26847,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="B328">
         <v>500</v>
@@ -26870,7 +26867,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="B329">
         <v>550</v>
@@ -26890,7 +26887,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="B330">
         <v>600</v>
@@ -26910,7 +26907,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="B331">
         <v>700</v>
@@ -26930,7 +26927,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="B332">
         <v>800</v>
@@ -26950,7 +26947,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="B333">
         <v>900</v>
@@ -26970,7 +26967,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="B334">
         <v>1000</v>
@@ -26990,7 +26987,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="B335">
         <v>1100</v>
@@ -27010,7 +27007,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="B336">
         <v>1200</v>
@@ -27030,7 +27027,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="B337">
         <v>1300</v>
@@ -27050,7 +27047,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="B338">
         <v>285.83</v>
@@ -27070,7 +27067,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="B339">
         <v>300</v>
@@ -27090,7 +27087,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="B340">
         <v>350</v>
@@ -27110,7 +27107,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="B341">
         <v>400</v>
@@ -27130,7 +27127,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="B342">
         <v>450</v>
@@ -27150,7 +27147,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="B343">
         <v>500</v>
@@ -27170,7 +27167,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="B344">
         <v>550</v>
@@ -27190,7 +27187,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="B345">
         <v>600</v>
@@ -27210,7 +27207,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="B346">
         <v>700</v>
@@ -27230,7 +27227,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="B347">
         <v>800</v>
@@ -27250,7 +27247,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="B348">
         <v>900</v>
@@ -27270,7 +27267,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="B349">
         <v>1000</v>
@@ -27290,7 +27287,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="B350">
         <v>1100</v>
@@ -27310,7 +27307,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="B351">
         <v>1200</v>
@@ -27330,7 +27327,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="B352">
         <v>1300</v>
@@ -27350,7 +27347,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="B353">
         <v>295.01</v>
@@ -27370,7 +27367,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="B354">
         <v>300</v>
@@ -27390,7 +27387,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="B355">
         <v>350</v>
@@ -27410,7 +27407,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="B356">
         <v>400</v>
@@ -27430,7 +27427,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="B357">
         <v>450</v>
@@ -27450,7 +27447,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="B358">
         <v>500</v>
@@ -27470,7 +27467,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="B359">
         <v>550</v>
@@ -27490,7 +27487,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="B360">
         <v>600</v>
@@ -27510,7 +27507,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="B361">
         <v>700</v>
@@ -27530,7 +27527,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="B362">
         <v>800</v>
@@ -27550,7 +27547,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="B363">
         <v>900</v>
@@ -27570,7 +27567,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="B364">
         <v>1000</v>
@@ -27590,7 +27587,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="B365">
         <v>1100</v>
@@ -27610,7 +27607,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="B366">
         <v>1200</v>
@@ -27630,7 +27627,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="B367">
         <v>1300</v>
@@ -27650,7 +27647,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="B368">
         <v>303.35000000000002</v>
@@ -27670,7 +27667,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="B369">
         <v>325</v>
@@ -27690,7 +27687,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="B370">
         <v>350</v>
@@ -27710,7 +27707,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="B371">
         <v>400</v>
@@ -27730,7 +27727,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="B372">
         <v>450</v>
@@ -27750,7 +27747,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="B373">
         <v>500</v>
@@ -27770,7 +27767,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="B374">
         <v>550</v>
@@ -27790,7 +27787,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="B375">
         <v>600</v>
@@ -27810,7 +27807,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="B376">
         <v>650</v>
@@ -27830,7 +27827,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="B377">
         <v>700</v>
@@ -27850,7 +27847,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="B378">
         <v>800</v>
@@ -27870,7 +27867,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="B379">
         <v>900</v>
@@ -27890,7 +27887,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="B380">
         <v>1000</v>
@@ -27910,7 +27907,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="B381">
         <v>1100</v>
@@ -27930,7 +27927,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="B382">
         <v>1200</v>
@@ -27950,7 +27947,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="B383">
         <v>1300</v>
@@ -27970,7 +27967,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B384">
         <v>311</v>
@@ -27990,7 +27987,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B385">
         <v>325</v>
@@ -28010,7 +28007,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B386">
         <v>350</v>
@@ -28030,7 +28027,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B387">
         <v>400</v>
@@ -28050,7 +28047,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B388">
         <v>450</v>
@@ -28070,7 +28067,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B389">
         <v>500</v>
@@ -28090,7 +28087,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B390">
         <v>550</v>
@@ -28110,7 +28107,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B391">
         <v>600</v>
@@ -28130,7 +28127,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B392">
         <v>650</v>
@@ -28150,7 +28147,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B393">
         <v>700</v>
@@ -28170,7 +28167,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B394">
         <v>800</v>
@@ -28190,7 +28187,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B395">
         <v>900</v>
@@ -28210,7 +28207,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B396">
         <v>1000</v>
@@ -28230,7 +28227,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B397">
         <v>1100</v>
@@ -28250,7 +28247,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B398">
         <v>1200</v>
@@ -28270,7 +28267,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B399">
         <v>1300</v>
@@ -28290,7 +28287,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>12.5</v>
+        <v>12500</v>
       </c>
       <c r="B400">
         <v>327.81</v>
@@ -28310,7 +28307,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>12.5</v>
+        <v>12500</v>
       </c>
       <c r="B401">
         <v>350</v>
@@ -28330,7 +28327,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>12.5</v>
+        <v>12500</v>
       </c>
       <c r="B402">
         <v>400</v>
@@ -28350,7 +28347,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>12.5</v>
+        <v>12500</v>
       </c>
       <c r="B403">
         <v>450</v>
@@ -28370,7 +28367,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>12.5</v>
+        <v>12500</v>
       </c>
       <c r="B404">
         <v>500</v>
@@ -28390,7 +28387,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>12.5</v>
+        <v>12500</v>
       </c>
       <c r="B405">
         <v>550</v>
@@ -28410,7 +28407,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>12.5</v>
+        <v>12500</v>
       </c>
       <c r="B406">
         <v>600</v>
@@ -28430,7 +28427,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>12.5</v>
+        <v>12500</v>
       </c>
       <c r="B407">
         <v>650</v>
@@ -28450,7 +28447,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>12.5</v>
+        <v>12500</v>
       </c>
       <c r="B408">
         <v>700</v>
@@ -28470,7 +28467,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>12.5</v>
+        <v>12500</v>
       </c>
       <c r="B409">
         <v>800</v>
@@ -28490,7 +28487,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>12.5</v>
+        <v>12500</v>
       </c>
       <c r="B410">
         <v>900</v>
@@ -28510,7 +28507,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>12.5</v>
+        <v>12500</v>
       </c>
       <c r="B411">
         <v>1000</v>
@@ -28530,7 +28527,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>12.5</v>
+        <v>12500</v>
       </c>
       <c r="B412">
         <v>1100</v>
@@ -28550,7 +28547,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>12.5</v>
+        <v>12500</v>
       </c>
       <c r="B413">
         <v>1200</v>
@@ -28570,7 +28567,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>12.5</v>
+        <v>12500</v>
       </c>
       <c r="B414">
         <v>1300</v>
@@ -28590,7 +28587,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B415">
         <v>342.16</v>
@@ -28610,7 +28607,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B416">
         <v>350</v>
@@ -28630,7 +28627,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B417">
         <v>400</v>
@@ -28650,7 +28647,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B418">
         <v>450</v>
@@ -28670,7 +28667,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B419">
         <v>500</v>
@@ -28690,7 +28687,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B420">
         <v>550</v>
@@ -28710,7 +28707,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B421">
         <v>600</v>
@@ -28730,7 +28727,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B422">
         <v>650</v>
@@ -28750,7 +28747,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B423">
         <v>700</v>
@@ -28770,7 +28767,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B424">
         <v>800</v>
@@ -28790,7 +28787,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B425">
         <v>900</v>
@@ -28810,7 +28807,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B426">
         <v>1000</v>
@@ -28830,7 +28827,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B427">
         <v>1100</v>
@@ -28850,7 +28847,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B428">
         <v>1200</v>
@@ -28870,7 +28867,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B429">
         <v>1300</v>
@@ -28890,7 +28887,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>17.5</v>
+        <v>17500</v>
       </c>
       <c r="B430">
         <v>354.67</v>
@@ -28910,7 +28907,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>17.5</v>
+        <v>17500</v>
       </c>
       <c r="B431">
         <v>400</v>
@@ -28930,7 +28927,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>17.5</v>
+        <v>17500</v>
       </c>
       <c r="B432">
         <v>450</v>
@@ -28950,7 +28947,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>17.5</v>
+        <v>17500</v>
       </c>
       <c r="B433">
         <v>500</v>
@@ -28970,7 +28967,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>17.5</v>
+        <v>17500</v>
       </c>
       <c r="B434">
         <v>550</v>
@@ -28990,7 +28987,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>17.5</v>
+        <v>17500</v>
       </c>
       <c r="B435">
         <v>600</v>
@@ -29010,7 +29007,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>17.5</v>
+        <v>17500</v>
       </c>
       <c r="B436">
         <v>650</v>
@@ -29030,7 +29027,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>17.5</v>
+        <v>17500</v>
       </c>
       <c r="B437">
         <v>700</v>
@@ -29050,7 +29047,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>17.5</v>
+        <v>17500</v>
       </c>
       <c r="B438">
         <v>800</v>
@@ -29070,7 +29067,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>17.5</v>
+        <v>17500</v>
       </c>
       <c r="B439">
         <v>900</v>
@@ -29090,7 +29087,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>17.5</v>
+        <v>17500</v>
       </c>
       <c r="B440">
         <v>1000</v>
@@ -29110,7 +29107,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>17.5</v>
+        <v>17500</v>
       </c>
       <c r="B441">
         <v>1100</v>
@@ -29130,7 +29127,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>17.5</v>
+        <v>17500</v>
       </c>
       <c r="B442">
         <v>1200</v>
@@ -29150,7 +29147,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>17.5</v>
+        <v>17500</v>
       </c>
       <c r="B443">
         <v>1300</v>
@@ -29170,7 +29167,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B444">
         <v>365.75</v>
@@ -29190,7 +29187,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B445">
         <v>400</v>
@@ -29210,7 +29207,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B446">
         <v>450</v>
@@ -29230,7 +29227,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B447">
         <v>500</v>
@@ -29250,7 +29247,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B448">
         <v>550</v>
@@ -29270,7 +29267,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B449">
         <v>600</v>
@@ -29290,7 +29287,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B450">
         <v>650</v>
@@ -29310,7 +29307,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B451">
         <v>700</v>
@@ -29330,7 +29327,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B452">
         <v>800</v>
@@ -29350,7 +29347,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B453">
         <v>900</v>
@@ -29370,7 +29367,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B454">
         <v>1000</v>
@@ -29390,7 +29387,7 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B455">
         <v>1100</v>
@@ -29410,7 +29407,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B456">
         <v>1200</v>
@@ -29430,7 +29427,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B457">
         <v>1300</v>
@@ -29450,7 +29447,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>25</v>
+        <v>25000</v>
       </c>
       <c r="B458">
         <v>375</v>
@@ -29470,7 +29467,7 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>25</v>
+        <v>25000</v>
       </c>
       <c r="B459">
         <v>400</v>
@@ -29490,7 +29487,7 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>25</v>
+        <v>25000</v>
       </c>
       <c r="B460">
         <v>425</v>
@@ -29510,7 +29507,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>25</v>
+        <v>25000</v>
       </c>
       <c r="B461">
         <v>450</v>
@@ -29530,7 +29527,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>25</v>
+        <v>25000</v>
       </c>
       <c r="B462">
         <v>500</v>
@@ -29550,7 +29547,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>25</v>
+        <v>25000</v>
       </c>
       <c r="B463">
         <v>550</v>
@@ -29570,7 +29567,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>25</v>
+        <v>25000</v>
       </c>
       <c r="B464">
         <v>600</v>
@@ -29590,7 +29587,7 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>25</v>
+        <v>25000</v>
       </c>
       <c r="B465">
         <v>650</v>
@@ -29610,7 +29607,7 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>25</v>
+        <v>25000</v>
       </c>
       <c r="B466">
         <v>700</v>
@@ -29630,7 +29627,7 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>25</v>
+        <v>25000</v>
       </c>
       <c r="B467">
         <v>800</v>
@@ -29650,7 +29647,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>25</v>
+        <v>25000</v>
       </c>
       <c r="B468">
         <v>900</v>
@@ -29670,7 +29667,7 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>25</v>
+        <v>25000</v>
       </c>
       <c r="B469">
         <v>1000</v>
@@ -29690,7 +29687,7 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>25</v>
+        <v>25000</v>
       </c>
       <c r="B470">
         <v>1100</v>
@@ -29710,7 +29707,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>25</v>
+        <v>25000</v>
       </c>
       <c r="B471">
         <v>1200</v>
@@ -29730,7 +29727,7 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>25</v>
+        <v>25000</v>
       </c>
       <c r="B472">
         <v>1300</v>
@@ -29750,7 +29747,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B473">
         <v>375</v>
@@ -29770,7 +29767,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B474">
         <v>400</v>
@@ -29790,7 +29787,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B475">
         <v>425</v>
@@ -29810,7 +29807,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B476">
         <v>450</v>
@@ -29830,7 +29827,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B477">
         <v>500</v>
@@ -29850,7 +29847,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B478">
         <v>550</v>
@@ -29870,7 +29867,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B479">
         <v>600</v>
@@ -29890,7 +29887,7 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B480">
         <v>650</v>
@@ -29910,7 +29907,7 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B481">
         <v>700</v>
@@ -29930,7 +29927,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B482">
         <v>800</v>
@@ -29950,7 +29947,7 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B483">
         <v>900</v>
@@ -29970,7 +29967,7 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B484">
         <v>1000</v>
@@ -29990,7 +29987,7 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B485">
         <v>1100</v>
@@ -30010,7 +30007,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B486">
         <v>1200</v>
@@ -30030,7 +30027,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B487">
         <v>1300</v>
@@ -30050,7 +30047,7 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="B488">
         <v>375</v>
@@ -30070,7 +30067,7 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="B489">
         <v>400</v>
@@ -30090,7 +30087,7 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="B490">
         <v>425</v>
@@ -30110,7 +30107,7 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="B491">
         <v>450</v>
@@ -30130,7 +30127,7 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="B492">
         <v>500</v>
@@ -30150,7 +30147,7 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="B493">
         <v>550</v>
@@ -30170,7 +30167,7 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="B494">
         <v>600</v>
@@ -30190,7 +30187,7 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="B495">
         <v>650</v>
@@ -30210,7 +30207,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="B496">
         <v>700</v>
@@ -30230,7 +30227,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="B497">
         <v>800</v>
@@ -30250,7 +30247,7 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="B498">
         <v>900</v>
@@ -30270,7 +30267,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="B499">
         <v>1000</v>
@@ -30290,7 +30287,7 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="B500">
         <v>1100</v>
@@ -30310,7 +30307,7 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="B501">
         <v>1200</v>
@@ -30330,7 +30327,7 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="B502">
         <v>1300</v>
@@ -30350,7 +30347,7 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="B503">
         <v>375</v>
@@ -30370,7 +30367,7 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="B504">
         <v>400</v>
@@ -30390,7 +30387,7 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="B505">
         <v>425</v>
@@ -30410,7 +30407,7 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="B506">
         <v>450</v>
@@ -30430,7 +30427,7 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="B507">
         <v>500</v>
@@ -30450,7 +30447,7 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="B508">
         <v>550</v>
@@ -30470,7 +30467,7 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="B509">
         <v>600</v>
@@ -30490,7 +30487,7 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="B510">
         <v>650</v>
@@ -30510,7 +30507,7 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="B511">
         <v>700</v>
@@ -30530,7 +30527,7 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="B512">
         <v>800</v>
@@ -30550,7 +30547,7 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="B513">
         <v>900</v>
@@ -30570,7 +30567,7 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="B514">
         <v>1000</v>
@@ -30590,7 +30587,7 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="B515">
         <v>1100</v>
@@ -30610,7 +30607,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="B516">
         <v>1200</v>
@@ -30630,7 +30627,7 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="B517">
         <v>1300</v>
@@ -30650,7 +30647,7 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B518">
         <v>375</v>
@@ -30670,7 +30667,7 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B519">
         <v>400</v>
@@ -30690,7 +30687,7 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B520">
         <v>425</v>
@@ -30710,7 +30707,7 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B521">
         <v>450</v>
@@ -30730,7 +30727,7 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B522">
         <v>500</v>
@@ -30750,7 +30747,7 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B523">
         <v>550</v>
@@ -30770,7 +30767,7 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B524">
         <v>600</v>
@@ -30790,7 +30787,7 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B525">
         <v>650</v>
@@ -30810,7 +30807,7 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B526">
         <v>700</v>
@@ -30830,7 +30827,7 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B527">
         <v>800</v>
@@ -30850,7 +30847,7 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B528">
         <v>900</v>
@@ -30870,7 +30867,7 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B529">
         <v>1000</v>
@@ -30890,7 +30887,7 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B530">
         <v>1100</v>
@@ -30910,7 +30907,7 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B531">
         <v>1200</v>
@@ -30930,7 +30927,7 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B532">
         <v>1300</v>
@@ -30950,7 +30947,7 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="B533">
         <v>375</v>
@@ -30970,7 +30967,7 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="B534">
         <v>400</v>
@@ -30990,7 +30987,7 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="B535">
         <v>425</v>
@@ -31010,7 +31007,7 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="B536">
         <v>450</v>
@@ -31030,7 +31027,7 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="B537">
         <v>500</v>
@@ -31050,7 +31047,7 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="B538">
         <v>550</v>
@@ -31070,7 +31067,7 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="B539">
         <v>600</v>
@@ -31090,7 +31087,7 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="B540">
         <v>650</v>
@@ -31110,7 +31107,7 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="B541">
         <v>700</v>
@@ -31130,7 +31127,7 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="B542">
         <v>800</v>
@@ -31150,7 +31147,7 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="B543">
         <v>900</v>
@@ -31170,7 +31167,7 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="B544">
         <v>1000</v>
@@ -31190,7 +31187,7 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="B545">
         <v>1100</v>
@@ -31210,7 +31207,7 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="B546">
         <v>1200</v>
@@ -31230,7 +31227,7 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="B547">
         <v>1300</v>
@@ -31258,7 +31255,7 @@
   <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31285,7 +31282,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>8</v>
@@ -31305,7 +31302,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B3" s="7">
         <v>263.94</v>
@@ -31325,7 +31322,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -31345,7 +31342,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B5" s="7">
         <v>20</v>
@@ -31365,7 +31362,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B6" s="7">
         <v>40</v>
@@ -31385,7 +31382,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B7" s="7">
         <v>60</v>
@@ -31405,7 +31402,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B8" s="7">
         <v>80</v>
@@ -31425,7 +31422,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B9" s="7">
         <v>100</v>
@@ -31445,7 +31442,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B10" s="7">
         <v>120</v>
@@ -31465,7 +31462,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B11" s="7">
         <v>140</v>
@@ -31485,7 +31482,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B12" s="7">
         <v>160</v>
@@ -31505,7 +31502,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B13" s="7">
         <v>180</v>
@@ -31525,7 +31522,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B14" s="7">
         <v>200</v>
@@ -31545,7 +31542,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B15" s="7">
         <v>220</v>
@@ -31565,7 +31562,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B16" s="7">
         <v>240</v>
@@ -31585,7 +31582,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B17" s="7">
         <v>260</v>
@@ -31605,7 +31602,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B18" s="7">
         <v>280</v>
@@ -31625,7 +31622,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B19" s="7">
         <v>300</v>
@@ -31645,7 +31642,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B20" s="7">
         <v>320</v>
@@ -31665,7 +31662,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B21" s="9">
         <v>340</v>
@@ -31685,7 +31682,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B22" s="7">
         <v>311</v>
@@ -31705,7 +31702,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B23" s="7">
         <v>0</v>
@@ -31725,7 +31722,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B24" s="7">
         <v>20</v>
@@ -31745,7 +31742,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B25" s="7">
         <v>40</v>
@@ -31765,7 +31762,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B26" s="7">
         <v>60</v>
@@ -31785,7 +31782,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B27" s="7">
         <v>80</v>
@@ -31805,7 +31802,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B28" s="7">
         <v>100</v>
@@ -31825,7 +31822,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B29" s="7">
         <v>120</v>
@@ -31845,7 +31842,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B30" s="7">
         <v>140</v>
@@ -31865,7 +31862,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B31" s="7">
         <v>160</v>
@@ -31885,7 +31882,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B32" s="7">
         <v>180</v>
@@ -31905,7 +31902,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B33" s="7">
         <v>200</v>
@@ -31925,7 +31922,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B34" s="7">
         <v>220</v>
@@ -31945,7 +31942,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B35" s="7">
         <v>240</v>
@@ -31965,7 +31962,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B36" s="7">
         <v>260</v>
@@ -31985,7 +31982,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B37" s="7">
         <v>280</v>
@@ -32005,7 +32002,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B38" s="7">
         <v>300</v>
@@ -32025,7 +32022,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B39" s="7">
         <v>342.16</v>
@@ -32045,7 +32042,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B40" s="7">
         <v>0</v>
@@ -32065,7 +32062,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B41" s="7">
         <v>20</v>
@@ -32085,7 +32082,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B42" s="7">
         <v>40</v>
@@ -32105,7 +32102,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B43" s="7">
         <v>60</v>
@@ -32125,7 +32122,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B44" s="7">
         <v>80</v>
@@ -32145,7 +32142,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B45" s="7">
         <v>100</v>
@@ -32165,7 +32162,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B46" s="7">
         <v>120</v>
@@ -32185,7 +32182,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B47" s="7">
         <v>140</v>
@@ -32205,7 +32202,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B48" s="7">
         <v>160</v>
@@ -32225,7 +32222,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B49" s="7">
         <v>180</v>
@@ -32245,7 +32242,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B50" s="7">
         <v>200</v>
@@ -32265,7 +32262,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B51" s="7">
         <v>220</v>
@@ -32285,7 +32282,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B52" s="7">
         <v>240</v>
@@ -32305,7 +32302,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B53" s="7">
         <v>260</v>
@@ -32325,7 +32322,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B54" s="7">
         <v>365.75</v>
@@ -32345,7 +32342,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B55" s="7">
         <v>0</v>
@@ -32365,7 +32362,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B56" s="7">
         <v>20</v>
@@ -32385,7 +32382,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B57" s="7">
         <v>40</v>
@@ -32405,7 +32402,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B58" s="7">
         <v>60</v>
@@ -32425,7 +32422,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B59" s="7">
         <v>80</v>
@@ -32445,7 +32442,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B60" s="7">
         <v>100</v>
@@ -32465,7 +32462,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B61" s="7">
         <v>120</v>
@@ -32485,7 +32482,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B62" s="7">
         <v>140</v>
@@ -32505,7 +32502,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B63" s="7">
         <v>160</v>
@@ -32525,7 +32522,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B64" s="7">
         <v>180</v>
@@ -32545,7 +32542,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B65" s="7">
         <v>200</v>
@@ -32565,7 +32562,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B66" s="7">
         <v>220</v>
@@ -32585,7 +32582,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B67" s="7">
         <v>240</v>
@@ -32605,7 +32602,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B68" s="7">
         <v>260</v>
@@ -32625,7 +32622,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B69" s="7">
         <v>280</v>
@@ -32645,7 +32642,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B70" s="7">
         <v>300</v>
@@ -32665,7 +32662,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B71" s="7">
         <v>320</v>
@@ -32685,7 +32682,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B72" s="7">
         <v>340</v>
@@ -32705,7 +32702,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B73" s="7">
         <v>360</v>
@@ -32725,7 +32722,7 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B74" s="9">
         <v>380</v>
@@ -32745,7 +32742,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B75" s="7">
         <v>0</v>
@@ -32765,7 +32762,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B76" s="7">
         <v>20</v>
@@ -32785,7 +32782,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B77" s="7">
         <v>40</v>
@@ -32805,7 +32802,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B78" s="7">
         <v>60</v>
@@ -32825,7 +32822,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B79" s="7">
         <v>80</v>
@@ -32845,7 +32842,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B80" s="7">
         <v>100</v>
@@ -32865,7 +32862,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B81" s="7">
         <v>120</v>
@@ -32885,7 +32882,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B82" s="7">
         <v>140</v>
@@ -32905,7 +32902,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B83" s="7">
         <v>160</v>
@@ -32925,7 +32922,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B84" s="7">
         <v>180</v>
@@ -32945,7 +32942,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B85" s="7">
         <v>200</v>
@@ -32965,7 +32962,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B86" s="7">
         <v>220</v>
@@ -32985,7 +32982,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B87" s="7">
         <v>240</v>
@@ -33005,7 +33002,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B88" s="7">
         <v>260</v>
@@ -33025,7 +33022,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B89" s="7">
         <v>280</v>
@@ -33045,7 +33042,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B90" s="7">
         <v>300</v>
@@ -33065,7 +33062,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B91" s="7">
         <v>320</v>
@@ -33085,7 +33082,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B92" s="7">
         <v>340</v>
@@ -33105,7 +33102,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B93" s="7">
         <v>360</v>
@@ -33125,7 +33122,7 @@
     </row>
     <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B94" s="9">
         <v>380</v>
@@ -33145,7 +33142,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B95" s="7">
         <v>0</v>
@@ -33165,7 +33162,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B96" s="7">
         <v>20</v>
@@ -33185,7 +33182,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B97" s="7">
         <v>40</v>
@@ -33205,7 +33202,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B98" s="7">
         <v>60</v>
@@ -33225,7 +33222,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B99" s="7">
         <v>80</v>
@@ -33245,7 +33242,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B100" s="7">
         <v>100</v>
@@ -33265,7 +33262,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B101" s="7">
         <v>120</v>
@@ -33285,7 +33282,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B102" s="7">
         <v>140</v>
@@ -33305,7 +33302,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B103" s="7">
         <v>160</v>
@@ -33325,7 +33322,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B104" s="7">
         <v>180</v>
@@ -33345,7 +33342,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B105" s="7">
         <v>200</v>
@@ -33365,7 +33362,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B106" s="7">
         <v>220</v>
@@ -33385,7 +33382,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B107" s="7">
         <v>240</v>
@@ -33405,7 +33402,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B108" s="7">
         <v>260</v>
@@ -33425,7 +33422,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B109" s="7">
         <v>280</v>
@@ -33445,7 +33442,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B110" s="7">
         <v>300</v>
@@ -33465,7 +33462,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B111" s="7">
         <v>320</v>
@@ -33485,7 +33482,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B112" s="7">
         <v>340</v>
@@ -33505,7 +33502,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="15">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B113" s="7">
         <v>360</v>
@@ -37424,7 +37421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1759759-343E-49E3-9D79-7A060200F338}">
   <dimension ref="A1:F264"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -37455,7 +37454,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>8</v>
@@ -37475,7 +37474,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>-36.950000000000003</v>
@@ -37495,7 +37494,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="B4" s="7">
         <v>-20</v>
@@ -37515,7 +37514,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="B5" s="7">
         <v>-10</v>
@@ -37535,7 +37534,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -37555,7 +37554,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="B7" s="7">
         <v>10</v>
@@ -37575,7 +37574,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="B8" s="7">
         <v>20</v>
@@ -37595,7 +37594,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="B9" s="7">
         <v>30</v>
@@ -37615,7 +37614,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="B10" s="7">
         <v>40</v>
@@ -37635,7 +37634,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="B11" s="7">
         <v>50</v>
@@ -37655,7 +37654,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="B12" s="7">
         <v>60</v>
@@ -37675,7 +37674,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="B13" s="7">
         <v>70</v>
@@ -37695,7 +37694,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="B14" s="7">
         <v>80</v>
@@ -37715,7 +37714,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="B15" s="7">
         <v>90</v>
@@ -37735,7 +37734,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="B16" s="9">
         <v>100</v>
@@ -37755,7 +37754,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B17">
         <v>-26.37</v>
@@ -37775,7 +37774,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B18" s="7">
         <v>-20</v>
@@ -37795,7 +37794,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B19" s="7">
         <v>-10</v>
@@ -37815,7 +37814,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B20" s="7">
         <v>0</v>
@@ -37835,7 +37834,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B21" s="7">
         <v>10</v>
@@ -37855,7 +37854,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B22" s="7">
         <v>20</v>
@@ -37875,7 +37874,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B23" s="7">
         <v>30</v>
@@ -37895,7 +37894,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B24" s="7">
         <v>40</v>
@@ -37915,7 +37914,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B25" s="7">
         <v>50</v>
@@ -37935,7 +37934,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B26" s="7">
         <v>60</v>
@@ -37955,7 +37954,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B27" s="7">
         <v>70</v>
@@ -37975,7 +37974,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B28" s="7">
         <v>80</v>
@@ -37995,7 +37994,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B29" s="7">
         <v>90</v>
@@ -38015,7 +38014,7 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B30" s="9">
         <v>100</v>
@@ -38035,7 +38034,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.14000000000000001</v>
+        <v>140</v>
       </c>
       <c r="B31">
         <v>-18.77</v>
@@ -38055,7 +38054,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.14000000000000001</v>
+        <v>140</v>
       </c>
       <c r="B32" s="7">
         <v>-10</v>
@@ -38075,7 +38074,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.14000000000000001</v>
+        <v>140</v>
       </c>
       <c r="B33" s="7">
         <v>0</v>
@@ -38095,7 +38094,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.14000000000000001</v>
+        <v>140</v>
       </c>
       <c r="B34" s="7">
         <v>10</v>
@@ -38115,7 +38114,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.14000000000000001</v>
+        <v>140</v>
       </c>
       <c r="B35" s="7">
         <v>20</v>
@@ -38135,7 +38134,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.14000000000000001</v>
+        <v>140</v>
       </c>
       <c r="B36" s="7">
         <v>30</v>
@@ -38155,7 +38154,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.14000000000000001</v>
+        <v>140</v>
       </c>
       <c r="B37" s="7">
         <v>40</v>
@@ -38175,7 +38174,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.14000000000000001</v>
+        <v>140</v>
       </c>
       <c r="B38" s="7">
         <v>50</v>
@@ -38195,7 +38194,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.14000000000000001</v>
+        <v>140</v>
       </c>
       <c r="B39" s="7">
         <v>60</v>
@@ -38215,7 +38214,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.14000000000000001</v>
+        <v>140</v>
       </c>
       <c r="B40" s="7">
         <v>70</v>
@@ -38235,7 +38234,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.14000000000000001</v>
+        <v>140</v>
       </c>
       <c r="B41" s="7">
         <v>80</v>
@@ -38255,7 +38254,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.14000000000000001</v>
+        <v>140</v>
       </c>
       <c r="B42" s="7">
         <v>90</v>
@@ -38275,7 +38274,7 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.14000000000000001</v>
+        <v>140</v>
       </c>
       <c r="B43" s="9">
         <v>100</v>
@@ -38295,7 +38294,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.18</v>
+        <v>180</v>
       </c>
       <c r="B44">
         <v>-12.73</v>
@@ -38315,7 +38314,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.18</v>
+        <v>180</v>
       </c>
       <c r="B45" s="7">
         <v>-10</v>
@@ -38335,7 +38334,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.18</v>
+        <v>180</v>
       </c>
       <c r="B46" s="7">
         <v>0</v>
@@ -38355,7 +38354,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.18</v>
+        <v>180</v>
       </c>
       <c r="B47" s="7">
         <v>10</v>
@@ -38375,7 +38374,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.18</v>
+        <v>180</v>
       </c>
       <c r="B48" s="7">
         <v>20</v>
@@ -38395,7 +38394,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.18</v>
+        <v>180</v>
       </c>
       <c r="B49" s="7">
         <v>30</v>
@@ -38415,7 +38414,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.18</v>
+        <v>180</v>
       </c>
       <c r="B50" s="7">
         <v>40</v>
@@ -38435,7 +38434,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.18</v>
+        <v>180</v>
       </c>
       <c r="B51" s="7">
         <v>50</v>
@@ -38455,7 +38454,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.18</v>
+        <v>180</v>
       </c>
       <c r="B52" s="7">
         <v>60</v>
@@ -38475,7 +38474,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.18</v>
+        <v>180</v>
       </c>
       <c r="B53" s="7">
         <v>70</v>
@@ -38495,7 +38494,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.18</v>
+        <v>180</v>
       </c>
       <c r="B54" s="7">
         <v>80</v>
@@ -38515,7 +38514,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.18</v>
+        <v>180</v>
       </c>
       <c r="B55" s="7">
         <v>90</v>
@@ -38535,7 +38534,7 @@
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>0.18</v>
+        <v>180</v>
       </c>
       <c r="B56" s="9">
         <v>100</v>
@@ -38555,7 +38554,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B57">
         <v>-10.09</v>
@@ -38575,7 +38574,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B58" s="7">
         <v>-10</v>
@@ -38595,7 +38594,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B59" s="7">
         <v>0</v>
@@ -38615,7 +38614,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B60" s="7">
         <v>10</v>
@@ -38635,7 +38634,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B61" s="7">
         <v>20</v>
@@ -38655,7 +38654,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B62" s="7">
         <v>30</v>
@@ -38675,7 +38674,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B63" s="7">
         <v>40</v>
@@ -38695,7 +38694,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B64" s="7">
         <v>50</v>
@@ -38715,7 +38714,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B65" s="7">
         <v>60</v>
@@ -38735,7 +38734,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B66" s="7">
         <v>70</v>
@@ -38755,7 +38754,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B67" s="7">
         <v>80</v>
@@ -38775,7 +38774,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B68" s="7">
         <v>90</v>
@@ -38795,7 +38794,7 @@
     </row>
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B69" s="9">
         <v>100</v>
@@ -38815,7 +38814,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.24</v>
+        <v>240</v>
       </c>
       <c r="B70">
         <v>-5.38</v>
@@ -38835,7 +38834,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.24</v>
+        <v>240</v>
       </c>
       <c r="B71" s="7">
         <v>0</v>
@@ -38855,7 +38854,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.24</v>
+        <v>240</v>
       </c>
       <c r="B72" s="7">
         <v>10</v>
@@ -38875,7 +38874,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.24</v>
+        <v>240</v>
       </c>
       <c r="B73" s="7">
         <v>20</v>
@@ -38895,7 +38894,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.24</v>
+        <v>240</v>
       </c>
       <c r="B74" s="7">
         <v>30</v>
@@ -38915,7 +38914,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.24</v>
+        <v>240</v>
       </c>
       <c r="B75" s="7">
         <v>40</v>
@@ -38935,7 +38934,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.24</v>
+        <v>240</v>
       </c>
       <c r="B76" s="7">
         <v>50</v>
@@ -38955,7 +38954,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.24</v>
+        <v>240</v>
       </c>
       <c r="B77" s="7">
         <v>60</v>
@@ -38975,7 +38974,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.24</v>
+        <v>240</v>
       </c>
       <c r="B78" s="7">
         <v>70</v>
@@ -38995,7 +38994,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.24</v>
+        <v>240</v>
       </c>
       <c r="B79" s="7">
         <v>80</v>
@@ -39015,7 +39014,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.24</v>
+        <v>240</v>
       </c>
       <c r="B80" s="7">
         <v>90</v>
@@ -39035,7 +39034,7 @@
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>0.24</v>
+        <v>240</v>
       </c>
       <c r="B81" s="9">
         <v>100</v>
@@ -39055,7 +39054,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.28000000000000003</v>
+        <v>280</v>
       </c>
       <c r="B82">
         <v>-1.25</v>
@@ -39075,7 +39074,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.28000000000000003</v>
+        <v>280</v>
       </c>
       <c r="B83" s="7">
         <v>0</v>
@@ -39095,7 +39094,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.28000000000000003</v>
+        <v>280</v>
       </c>
       <c r="B84" s="7">
         <v>10</v>
@@ -39115,7 +39114,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.28000000000000003</v>
+        <v>280</v>
       </c>
       <c r="B85" s="7">
         <v>20</v>
@@ -39135,7 +39134,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.28000000000000003</v>
+        <v>280</v>
       </c>
       <c r="B86" s="7">
         <v>30</v>
@@ -39155,7 +39154,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.28000000000000003</v>
+        <v>280</v>
       </c>
       <c r="B87" s="7">
         <v>40</v>
@@ -39175,7 +39174,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0.28000000000000003</v>
+        <v>280</v>
       </c>
       <c r="B88" s="7">
         <v>50</v>
@@ -39195,7 +39194,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.28000000000000003</v>
+        <v>280</v>
       </c>
       <c r="B89" s="7">
         <v>60</v>
@@ -39215,7 +39214,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.28000000000000003</v>
+        <v>280</v>
       </c>
       <c r="B90" s="7">
         <v>70</v>
@@ -39235,7 +39234,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.28000000000000003</v>
+        <v>280</v>
       </c>
       <c r="B91" s="7">
         <v>80</v>
@@ -39255,7 +39254,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.28000000000000003</v>
+        <v>280</v>
       </c>
       <c r="B92" s="7">
         <v>90</v>
@@ -39275,7 +39274,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.28000000000000003</v>
+        <v>280</v>
       </c>
       <c r="B93" s="7">
         <v>100</v>
@@ -39295,7 +39294,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.28000000000000003</v>
+        <v>280</v>
       </c>
       <c r="B94" s="7">
         <v>110</v>
@@ -39315,7 +39314,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.28000000000000003</v>
+        <v>280</v>
       </c>
       <c r="B95" s="7">
         <v>120</v>
@@ -39335,7 +39334,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0.28000000000000003</v>
+        <v>280</v>
       </c>
       <c r="B96" s="7">
         <v>130</v>
@@ -39355,7 +39354,7 @@
     </row>
     <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>0.28000000000000003</v>
+        <v>280</v>
       </c>
       <c r="B97" s="9">
         <v>140</v>
@@ -39375,7 +39374,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.32</v>
+        <v>320</v>
       </c>
       <c r="B98">
         <v>2.46</v>
@@ -39395,7 +39394,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.32</v>
+        <v>320</v>
       </c>
       <c r="B99" s="7">
         <v>10</v>
@@ -39415,7 +39414,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.32</v>
+        <v>320</v>
       </c>
       <c r="B100" s="7">
         <v>20</v>
@@ -39435,7 +39434,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.32</v>
+        <v>320</v>
       </c>
       <c r="B101" s="7">
         <v>30</v>
@@ -39455,7 +39454,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>0.32</v>
+        <v>320</v>
       </c>
       <c r="B102" s="7">
         <v>40</v>
@@ -39475,7 +39474,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>0.32</v>
+        <v>320</v>
       </c>
       <c r="B103" s="7">
         <v>50</v>
@@ -39495,7 +39494,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>0.32</v>
+        <v>320</v>
       </c>
       <c r="B104" s="7">
         <v>60</v>
@@ -39515,7 +39514,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>0.32</v>
+        <v>320</v>
       </c>
       <c r="B105" s="7">
         <v>70</v>
@@ -39535,7 +39534,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>0.32</v>
+        <v>320</v>
       </c>
       <c r="B106" s="7">
         <v>80</v>
@@ -39555,7 +39554,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>0.32</v>
+        <v>320</v>
       </c>
       <c r="B107" s="7">
         <v>90</v>
@@ -39575,7 +39574,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>0.32</v>
+        <v>320</v>
       </c>
       <c r="B108" s="7">
         <v>100</v>
@@ -39595,7 +39594,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>0.32</v>
+        <v>320</v>
       </c>
       <c r="B109" s="7">
         <v>110</v>
@@ -39615,7 +39614,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>0.32</v>
+        <v>320</v>
       </c>
       <c r="B110" s="7">
         <v>120</v>
@@ -39635,7 +39634,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>0.32</v>
+        <v>320</v>
       </c>
       <c r="B111" s="7">
         <v>130</v>
@@ -39655,7 +39654,7 @@
     </row>
     <row r="112" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>0.32</v>
+        <v>320</v>
       </c>
       <c r="B112" s="9">
         <v>140</v>
@@ -39675,7 +39674,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B113">
         <v>8.91</v>
@@ -39695,7 +39694,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B114" s="7">
         <v>10</v>
@@ -39715,7 +39714,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B115" s="7">
         <v>20</v>
@@ -39735,7 +39734,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B116" s="7">
         <v>30</v>
@@ -39755,7 +39754,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B117" s="7">
         <v>40</v>
@@ -39775,7 +39774,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B118" s="7">
         <v>50</v>
@@ -39795,7 +39794,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B119" s="7">
         <v>60</v>
@@ -39815,7 +39814,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B120" s="7">
         <v>70</v>
@@ -39835,7 +39834,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B121" s="7">
         <v>80</v>
@@ -39855,7 +39854,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B122" s="7">
         <v>90</v>
@@ -39875,7 +39874,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B123" s="7">
         <v>100</v>
@@ -39895,7 +39894,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B124" s="7">
         <v>110</v>
@@ -39915,7 +39914,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B125" s="7">
         <v>120</v>
@@ -39935,7 +39934,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B126" s="7">
         <v>130</v>
@@ -39955,7 +39954,7 @@
     </row>
     <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="B127" s="9">
         <v>140</v>
@@ -39975,7 +39974,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B128">
         <v>15.71</v>
@@ -39995,7 +39994,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B129" s="7">
         <v>20</v>
@@ -40015,7 +40014,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B130" s="7">
         <v>30</v>
@@ -40035,7 +40034,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B131" s="7">
         <v>40</v>
@@ -40055,7 +40054,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B132" s="7">
         <v>50</v>
@@ -40075,7 +40074,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B133" s="7">
         <v>60</v>
@@ -40095,7 +40094,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B134" s="7">
         <v>70</v>
@@ -40115,7 +40114,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B135" s="7">
         <v>80</v>
@@ -40135,7 +40134,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B136" s="7">
         <v>90</v>
@@ -40155,7 +40154,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B137" s="7">
         <v>100</v>
@@ -40175,7 +40174,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B138" s="7">
         <v>110</v>
@@ -40195,7 +40194,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B139" s="7">
         <v>120</v>
@@ -40215,7 +40214,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B140" s="7">
         <v>130</v>
@@ -40235,7 +40234,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B141" s="7">
         <v>140</v>
@@ -40255,7 +40254,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B142" s="7">
         <v>150</v>
@@ -40275,7 +40274,7 @@
     </row>
     <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="B143" s="9">
         <v>160</v>
@@ -40295,7 +40294,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B144">
         <v>21.55</v>
@@ -40315,7 +40314,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B145" s="7">
         <v>30</v>
@@ -40335,7 +40334,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B146" s="7">
         <v>40</v>
@@ -40355,7 +40354,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B147" s="7">
         <v>50</v>
@@ -40375,7 +40374,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B148" s="7">
         <v>60</v>
@@ -40395,7 +40394,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B149" s="7">
         <v>70</v>
@@ -40415,7 +40414,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B150" s="7">
         <v>80</v>
@@ -40435,7 +40434,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B151" s="7">
         <v>90</v>
@@ -40455,7 +40454,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B152" s="7">
         <v>100</v>
@@ -40475,7 +40474,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B153" s="7">
         <v>110</v>
@@ -40495,7 +40494,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B154" s="7">
         <v>120</v>
@@ -40515,7 +40514,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B155" s="7">
         <v>130</v>
@@ -40535,7 +40534,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B156" s="7">
         <v>140</v>
@@ -40555,7 +40554,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B157" s="7">
         <v>150</v>
@@ -40575,7 +40574,7 @@
     </row>
     <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="B158" s="9">
         <v>160</v>
@@ -40595,7 +40594,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="B159">
         <v>26.69</v>
@@ -40615,7 +40614,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="B160" s="7">
         <v>30</v>
@@ -40635,7 +40634,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="B161" s="7">
         <v>40</v>
@@ -40655,7 +40654,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="B162" s="7">
         <v>50</v>
@@ -40675,7 +40674,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="B163" s="7">
         <v>60</v>
@@ -40695,7 +40694,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="B164" s="7">
         <v>70</v>
@@ -40715,7 +40714,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="B165" s="7">
         <v>80</v>
@@ -40735,7 +40734,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="B166" s="7">
         <v>90</v>
@@ -40755,7 +40754,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="B167" s="7">
         <v>100</v>
@@ -40775,7 +40774,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="B168" s="7">
         <v>110</v>
@@ -40795,7 +40794,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="B169" s="7">
         <v>120</v>
@@ -40815,7 +40814,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="B170" s="7">
         <v>130</v>
@@ -40835,7 +40834,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="B171" s="7">
         <v>140</v>
@@ -40855,7 +40854,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="B172" s="7">
         <v>150</v>
@@ -40875,7 +40874,7 @@
     </row>
     <row r="173" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="B173" s="9">
         <v>160</v>
@@ -40895,7 +40894,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B174">
         <v>31.31</v>
@@ -40915,7 +40914,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B175" s="7">
         <v>40</v>
@@ -40935,7 +40934,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B176" s="7">
         <v>50</v>
@@ -40955,7 +40954,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B177" s="7">
         <v>60</v>
@@ -40975,7 +40974,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B178" s="7">
         <v>70</v>
@@ -40995,7 +40994,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B179" s="7">
         <v>80</v>
@@ -41015,7 +41014,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B180" s="7">
         <v>90</v>
@@ -41035,7 +41034,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B181" s="7">
         <v>100</v>
@@ -41055,7 +41054,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B182" s="7">
         <v>110</v>
@@ -41075,7 +41074,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B183" s="7">
         <v>120</v>
@@ -41095,7 +41094,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B184" s="7">
         <v>130</v>
@@ -41115,7 +41114,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B185" s="7">
         <v>140</v>
@@ -41135,7 +41134,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B186" s="7">
         <v>150</v>
@@ -41155,7 +41154,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B187" s="7">
         <v>160</v>
@@ -41175,7 +41174,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B188" s="7">
         <v>170</v>
@@ -41195,7 +41194,7 @@
     </row>
     <row r="189" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="B189" s="9">
         <v>180</v>
@@ -41215,7 +41214,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="B190">
         <v>35.51</v>
@@ -41235,7 +41234,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="B191" s="7">
         <v>40</v>
@@ -41255,7 +41254,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="B192" s="7">
         <v>50</v>
@@ -41275,7 +41274,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="B193" s="7">
         <v>60</v>
@@ -41295,7 +41294,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="B194" s="7">
         <v>70</v>
@@ -41315,7 +41314,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="B195" s="7">
         <v>80</v>
@@ -41335,7 +41334,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="B196" s="7">
         <v>90</v>
@@ -41355,7 +41354,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="B197" s="7">
         <v>100</v>
@@ -41375,7 +41374,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="B198" s="7">
         <v>110</v>
@@ -41395,7 +41394,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="B199" s="7">
         <v>120</v>
@@ -41415,7 +41414,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="B200" s="7">
         <v>130</v>
@@ -41435,7 +41434,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="B201" s="7">
         <v>140</v>
@@ -41455,7 +41454,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="B202" s="7">
         <v>150</v>
@@ -41475,7 +41474,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="B203" s="7">
         <v>160</v>
@@ -41495,7 +41494,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="B204" s="7">
         <v>170</v>
@@ -41515,7 +41514,7 @@
     </row>
     <row r="205" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="B205" s="9">
         <v>180</v>
@@ -41535,7 +41534,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B206">
         <v>39.369999999999997</v>
@@ -41555,7 +41554,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B207" s="7">
         <v>40</v>
@@ -41575,7 +41574,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B208" s="7">
         <v>50</v>
@@ -41595,7 +41594,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B209" s="7">
         <v>60</v>
@@ -41615,7 +41614,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B210" s="7">
         <v>70</v>
@@ -41635,7 +41634,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B211" s="7">
         <v>80</v>
@@ -41655,7 +41654,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B212" s="7">
         <v>90</v>
@@ -41675,7 +41674,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B213" s="7">
         <v>100</v>
@@ -41695,7 +41694,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B214" s="7">
         <v>110</v>
@@ -41715,7 +41714,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B215" s="7">
         <v>120</v>
@@ -41735,7 +41734,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B216" s="7">
         <v>130</v>
@@ -41755,7 +41754,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B217" s="7">
         <v>140</v>
@@ -41775,7 +41774,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B218" s="7">
         <v>150</v>
@@ -41795,7 +41794,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B219" s="7">
         <v>160</v>
@@ -41815,7 +41814,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B220" s="7">
         <v>170</v>
@@ -41835,7 +41834,7 @@
     </row>
     <row r="221" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B221" s="9">
         <v>180</v>
@@ -41855,7 +41854,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B222">
         <v>46.29</v>
@@ -41875,7 +41874,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B223" s="7">
         <v>50</v>
@@ -41895,7 +41894,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B224" s="7">
         <v>60</v>
@@ -41915,7 +41914,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B225" s="7">
         <v>70</v>
@@ -41935,7 +41934,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B226" s="7">
         <v>80</v>
@@ -41955,7 +41954,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B227" s="7">
         <v>90</v>
@@ -41975,7 +41974,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B228" s="7">
         <v>100</v>
@@ -41995,7 +41994,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B229" s="7">
         <v>110</v>
@@ -42015,7 +42014,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B230" s="7">
         <v>120</v>
@@ -42035,7 +42034,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B231" s="7">
         <v>130</v>
@@ -42055,7 +42054,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B232" s="7">
         <v>140</v>
@@ -42075,7 +42074,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B233" s="7">
         <v>150</v>
@@ -42095,7 +42094,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B234" s="7">
         <v>160</v>
@@ -42115,7 +42114,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B235" s="7">
         <v>170</v>
@@ -42135,7 +42134,7 @@
     </row>
     <row r="236" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="B236" s="9">
         <v>180</v>
@@ -42155,7 +42154,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B237">
         <v>52.4</v>
@@ -42175,7 +42174,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B238" s="7">
         <v>60</v>
@@ -42195,7 +42194,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B239" s="7">
         <v>70</v>
@@ -42215,7 +42214,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B240" s="7">
         <v>80</v>
@@ -42235,7 +42234,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B241" s="7">
         <v>90</v>
@@ -42255,7 +42254,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B242" s="7">
         <v>100</v>
@@ -42275,7 +42274,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B243" s="7">
         <v>110</v>
@@ -42295,7 +42294,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B244" s="7">
         <v>120</v>
@@ -42315,7 +42314,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B245" s="7">
         <v>130</v>
@@ -42335,7 +42334,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B246" s="7">
         <v>140</v>
@@ -42355,7 +42354,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B247" s="7">
         <v>150</v>
@@ -42375,7 +42374,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B248" s="7">
         <v>160</v>
@@ -42395,7 +42394,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B249" s="7">
         <v>170</v>
@@ -42415,7 +42414,7 @@
     </row>
     <row r="250" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="B250" s="9">
         <v>180</v>
@@ -42435,7 +42434,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B251">
         <v>57.88</v>
@@ -42455,7 +42454,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B252" s="7">
         <v>60</v>
@@ -42475,7 +42474,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B253" s="7">
         <v>70</v>
@@ -42495,7 +42494,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B254" s="7">
         <v>80</v>
@@ -42515,7 +42514,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B255" s="7">
         <v>90</v>
@@ -42535,7 +42534,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B256" s="7">
         <v>100</v>
@@ -42555,7 +42554,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B257" s="7">
         <v>110</v>
@@ -42575,7 +42574,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B258" s="7">
         <v>120</v>
@@ -42595,7 +42594,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B259" s="7">
         <v>130</v>
@@ -42615,7 +42614,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B260" s="7">
         <v>140</v>
@@ -42635,7 +42634,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B261" s="7">
         <v>150</v>
@@ -42655,7 +42654,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B262" s="7">
         <v>160</v>
@@ -42675,7 +42674,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B263" s="7">
         <v>170</v>
@@ -42695,7 +42694,7 @@
     </row>
     <row r="264" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="B264" s="9">
         <v>180</v>
@@ -42740,13 +42739,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>27</v>
@@ -42755,13 +42754,13 @@
         <v>34</v>
       </c>
       <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
         <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -43951,13 +43950,13 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -46515,18 +46514,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46548,14 +46547,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BFBC4A-F8AC-44F4-93B5-8FD927C5A8AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D72CE86-F6EB-4551-A4BF-725F2C5BE827}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -46569,4 +46560,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BFBC4A-F8AC-44F4-93B5-8FD927C5A8AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/340 py_noex2.xlsx
+++ b/340 py_noex2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PC stuff\Programs\Python\QT Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A9748F-B8C4-4569-AC55-0F227DB6BFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FD364E-8FA6-49C0-8DA5-38CABDB0CDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="720" activeTab="6" xr2:uid="{149530E0-52EE-45AC-BBFE-894058325DCC}"/>
+    <workbookView xWindow="-24660" yWindow="585" windowWidth="20595" windowHeight="14445" tabRatio="720" activeTab="2" xr2:uid="{149530E0-52EE-45AC-BBFE-894058325DCC}"/>
   </bookViews>
   <sheets>
     <sheet name="water_t" sheetId="10" r:id="rId1"/>
     <sheet name="water_p" sheetId="12" r:id="rId2"/>
-    <sheet name="water_super" sheetId="11" r:id="rId3"/>
+    <sheet name="water_superheated" sheetId="11" r:id="rId3"/>
     <sheet name="water_compresed" sheetId="13" r:id="rId4"/>
     <sheet name="R134a_t" sheetId="15" r:id="rId5"/>
     <sheet name="R134a_p" sheetId="16" r:id="rId6"/>
@@ -20299,7 +20299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC3F53F-2CC9-40A4-B846-6AE24C4EC824}">
   <dimension ref="A1:F547"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -37421,7 +37421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1759759-343E-49E3-9D79-7A060200F338}">
   <dimension ref="A1:F264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -46514,18 +46514,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46547,6 +46547,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BFBC4A-F8AC-44F4-93B5-8FD927C5A8AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D72CE86-F6EB-4551-A4BF-725F2C5BE827}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -46560,12 +46568,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BFBC4A-F8AC-44F4-93B5-8FD927C5A8AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>